--- a/temp.xlsx
+++ b/temp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t/>
   </si>
@@ -217,150 +217,6 @@
   </si>
   <si>
     <t>已接收的读寄存器回数数据包总和</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_0</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 0</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=0</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_1</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 1</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=1</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_2</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 2</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=2</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_3</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 3</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=3</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_4</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 4</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=4</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_5</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 5</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=5</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_6</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 6</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=6</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_7</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 7</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=7</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_8</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 8</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=8</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_9</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 9</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=9</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_10</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 10</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=10</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_11</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 11</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=11</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_12</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 12</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=12</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_13</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 13</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=13</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_14</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 14</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=14</t>
-  </si>
-  <si>
-    <t>mac_i2s_send_count_15</t>
-  </si>
-  <si>
-    <t>0x300 +0x04 * 15</t>
-  </si>
-  <si>
-    <t>第k路I2S发送的数据包的总和，k=15</t>
   </si>
   <si>
     <t>mac_test_array</t>
@@ -749,7 +605,7 @@
   <sheetPr codeName="temp_block">
     <tabColor/>
   </sheetPr>
-  <dimension ref="L37"/>
+  <dimension ref="L21"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
   </sheetViews>
@@ -1255,18 +1111,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="1:12">
+      <c r="A21" s="4" t="s"/>
       <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="4" t="s"/>
       <c r="E21" s="4" t="s"/>
       <c r="F21" s="4" t="s"/>
-      <c r="G21" s="4">
-        <v>32</v>
+      <c r="G21" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>17</v>
@@ -1277,415 +1134,14 @@
       <c r="J21" s="4" t="s"/>
       <c r="K21" s="4" t="s"/>
       <c r="L21" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="4" t="s"/>
-      <c r="E22" s="4" t="s"/>
-      <c r="F22" s="4" t="s"/>
-      <c r="G22" s="4">
-        <v>32</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s"/>
-      <c r="K22" s="4" t="s"/>
-      <c r="L22" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="4" t="s"/>
-      <c r="E23" s="4" t="s"/>
-      <c r="F23" s="4" t="s"/>
-      <c r="G23" s="4">
-        <v>32</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s"/>
-      <c r="K23" s="4" t="s"/>
-      <c r="L23" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="4" t="s"/>
-      <c r="E24" s="4" t="s"/>
-      <c r="F24" s="4" t="s"/>
-      <c r="G24" s="4">
-        <v>32</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4" t="s"/>
-      <c r="K24" s="4" t="s"/>
-      <c r="L24" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="4" t="s"/>
-      <c r="E25" s="4" t="s"/>
-      <c r="F25" s="4" t="s"/>
-      <c r="G25" s="4">
-        <v>32</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="s"/>
-      <c r="K25" s="4" t="s"/>
-      <c r="L25" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="4" t="s"/>
-      <c r="E26" s="4" t="s"/>
-      <c r="F26" s="4" t="s"/>
-      <c r="G26" s="4">
-        <v>32</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s"/>
-      <c r="K26" s="4" t="s"/>
-      <c r="L26" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="4" t="s"/>
-      <c r="E27" s="4" t="s"/>
-      <c r="F27" s="4" t="s"/>
-      <c r="G27" s="4">
-        <v>32</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s"/>
-      <c r="K27" s="4" t="s"/>
-      <c r="L27" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="4" t="s"/>
-      <c r="E28" s="4" t="s"/>
-      <c r="F28" s="4" t="s"/>
-      <c r="G28" s="4">
-        <v>32</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s"/>
-      <c r="K28" s="4" t="s"/>
-      <c r="L28" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="4" t="s"/>
-      <c r="E29" s="4" t="s"/>
-      <c r="F29" s="4" t="s"/>
-      <c r="G29" s="4">
-        <v>32</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s"/>
-      <c r="K29" s="4" t="s"/>
-      <c r="L29" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="4" t="s"/>
-      <c r="E30" s="4" t="s"/>
-      <c r="F30" s="4" t="s"/>
-      <c r="G30" s="4">
-        <v>32</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="s"/>
-      <c r="K30" s="4" t="s"/>
-      <c r="L30" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="4" t="s"/>
-      <c r="E31" s="4" t="s"/>
-      <c r="F31" s="4" t="s"/>
-      <c r="G31" s="4">
-        <v>32</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="s"/>
-      <c r="K31" s="4" t="s"/>
-      <c r="L31" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="4" t="s"/>
-      <c r="E32" s="4" t="s"/>
-      <c r="F32" s="4" t="s"/>
-      <c r="G32" s="4">
-        <v>32</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s"/>
-      <c r="K32" s="4" t="s"/>
-      <c r="L32" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="4" t="s"/>
-      <c r="E33" s="4" t="s"/>
-      <c r="F33" s="4" t="s"/>
-      <c r="G33" s="4">
-        <v>32</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4" t="s"/>
-      <c r="K33" s="4" t="s"/>
-      <c r="L33" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="4" t="s"/>
-      <c r="E34" s="4" t="s"/>
-      <c r="F34" s="4" t="s"/>
-      <c r="G34" s="4">
-        <v>32</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="s"/>
-      <c r="K34" s="4" t="s"/>
-      <c r="L34" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="4" t="s"/>
-      <c r="E35" s="4" t="s"/>
-      <c r="F35" s="4" t="s"/>
-      <c r="G35" s="4">
-        <v>32</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4" t="s"/>
-      <c r="K35" s="4" t="s"/>
-      <c r="L35" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="4" t="s"/>
-      <c r="E36" s="4" t="s"/>
-      <c r="F36" s="4" t="s"/>
-      <c r="G36" s="4">
-        <v>32</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="s"/>
-      <c r="K36" s="4" t="s"/>
-      <c r="L36" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="4" t="s"/>
-      <c r="B37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="4" t="s"/>
-      <c r="E37" s="4" t="s"/>
-      <c r="F37" s="4" t="s"/>
-      <c r="G37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4" t="s"/>
-      <c r="K37" s="4" t="s"/>
-      <c r="L37" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:A36"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>1024</v>
+        <v>65536</v>
       </c>
       <c r="D2" s="4" t="s"/>
       <c r="E2" s="4" t="s"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t/>
   </si>
@@ -42,7 +42,8 @@
     <t>type</t>
   </si>
   <si>
-    <t>assignment</t>
+    <t>assignment
+(width:lsb:sequence:step)</t>
   </si>
   <si>
     <t>initial value</t>
@@ -228,7 +229,46 @@
     <t>32:0:16:32</t>
   </si>
   <si>
-    <t>width:lsb:sequence:step</t>
+    <t>每一路I2S发送的数据包的总和，格式是：width:lsb:sequence:step，step=32相邻两个counter的起始位间隔32b，sequence=16表示16路I2S，lsb=0表示生成的寄存器从bit0开始算起，width=32表示每个counter位宽32b</t>
+  </si>
+  <si>
+    <t>i2s_out_tdm_num</t>
+  </si>
+  <si>
+    <t>0x1000</t>
+  </si>
+  <si>
+    <t>32:0:16:256</t>
+  </si>
+  <si>
+    <t>tdm值，合法值为2/4/8/16</t>
+  </si>
+  <si>
+    <t>i2s_out_is_master</t>
+  </si>
+  <si>
+    <t>0x1004</t>
+  </si>
+  <si>
+    <t>是否master模式，如是，由FPGA提供时钟信号，寄存器取值范围:0/1</t>
+  </si>
+  <si>
+    <t>i2s_out_enable</t>
+  </si>
+  <si>
+    <t>0x1008</t>
+  </si>
+  <si>
+    <t>是否使能，1：使能，0：不使能</t>
+  </si>
+  <si>
+    <t>i2s_out_dst fpga index</t>
+  </si>
+  <si>
+    <t>0x100C</t>
+  </si>
+  <si>
+    <t>目的FPGA的index，1~8，由板子上的拨码开关确定</t>
   </si>
 </sst>
 </file>
@@ -236,7 +276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -257,6 +297,9 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <sz val="10"/>
     </font>
   </fonts>
@@ -282,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +340,9 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -605,7 +651,7 @@
   <sheetPr codeName="temp_block">
     <tabColor/>
   </sheetPr>
-  <dimension ref="L21"/>
+  <dimension ref="L25"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
   </sheetViews>
@@ -683,7 +729,7 @@
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -709,7 +755,7 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s"/>
@@ -734,7 +780,7 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s"/>
@@ -759,7 +805,7 @@
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s"/>
@@ -787,7 +833,7 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s"/>
@@ -812,7 +858,7 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s"/>
@@ -837,7 +883,7 @@
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s"/>
@@ -862,7 +908,7 @@
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s"/>
@@ -887,7 +933,7 @@
       <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="4" t="s"/>
@@ -912,7 +958,7 @@
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="4" t="s"/>
@@ -937,7 +983,7 @@
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="4" t="s"/>
@@ -962,7 +1008,7 @@
       <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="4" t="s"/>
@@ -990,7 +1036,7 @@
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="4" t="s"/>
@@ -1015,7 +1061,7 @@
       <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="4" t="s"/>
@@ -1040,7 +1086,7 @@
       <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="4" t="s"/>
@@ -1065,7 +1111,7 @@
       <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="4" t="s"/>
@@ -1090,7 +1136,7 @@
       <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="4" t="s"/>
@@ -1111,12 +1157,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="4" t="s"/>
+    <row r="21" spans="2:12">
       <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="4" t="s"/>
@@ -1137,11 +1182,115 @@
         <v>71</v>
       </c>
     </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s"/>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s"/>
+      <c r="E22" s="4" t="s"/>
+      <c r="F22" s="4" t="s"/>
+      <c r="G22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4" t="s"/>
+      <c r="K22" s="4" t="s"/>
+      <c r="L22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4" t="s"/>
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="4" t="s"/>
+      <c r="E23" s="4" t="s"/>
+      <c r="F23" s="4" t="s"/>
+      <c r="G23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s"/>
+      <c r="K23" s="4" t="s"/>
+      <c r="L23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4" t="s"/>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s"/>
+      <c r="E24" s="4" t="s"/>
+      <c r="F24" s="4" t="s"/>
+      <c r="G24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s"/>
+      <c r="K24" s="4" t="s"/>
+      <c r="L24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4" t="s"/>
+      <c r="B25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="4" t="s"/>
+      <c r="E25" s="4" t="s"/>
+      <c r="F25" s="4" t="s"/>
+      <c r="G25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s"/>
+      <c r="K25" s="4" t="s"/>
+      <c r="L25" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t/>
   </si>
@@ -232,22 +232,26 @@
     <t>每一路I2S发送的数据包的总和，格式是：width:lsb:sequence:step，step=32相邻两个counter的起始位间隔32b，sequence=16表示16路I2S，lsb=0表示生成的寄存器从bit0开始算起，width=32表示每个counter位宽32b</t>
   </si>
   <si>
+    <t>i2s out
+从网口出的i2s</t>
+  </si>
+  <si>
     <t>i2s_out_tdm_num</t>
   </si>
   <si>
     <t>0x1000</t>
   </si>
   <si>
-    <t>32:0:16:256</t>
-  </si>
-  <si>
-    <t>tdm值，合法值为2/4/8/16</t>
+    <t>8:0:16:8</t>
+  </si>
+  <si>
+    <t>tdm值，合法值为1/2/3/4，分别对应TDM2/TDM4/TDM8/TDM16</t>
   </si>
   <si>
     <t>i2s_out_is_master</t>
   </si>
   <si>
-    <t>0x1004</t>
+    <t>0x1010</t>
   </si>
   <si>
     <t>是否master模式，如是，由FPGA提供时钟信号，寄存器取值范围:0/1</t>
@@ -256,7 +260,7 @@
     <t>i2s_out_enable</t>
   </si>
   <si>
-    <t>0x1008</t>
+    <t>0x1020</t>
   </si>
   <si>
     <t>是否使能，1：使能，0：不使能</t>
@@ -265,10 +269,180 @@
     <t>i2s_out_dst fpga index</t>
   </si>
   <si>
-    <t>0x100C</t>
+    <t>0x1030</t>
   </si>
   <si>
     <t>目的FPGA的index，1~8，由板子上的拨码开关确定</t>
+  </si>
+  <si>
+    <t>i2s_out_word_width</t>
+  </si>
+  <si>
+    <t>0x1040</t>
+  </si>
+  <si>
+    <t>数据槽位宽，合法值为1/2/3，分别对应16b/24b/32b</t>
+  </si>
+  <si>
+    <t>i2s_out_valid_word_width</t>
+  </si>
+  <si>
+    <t>0x1050</t>
+  </si>
+  <si>
+    <t>数据槽有效数据位宽，小于等于word_width， 合法值为1/2/3，分别对应16b/24b/32b</t>
+  </si>
+  <si>
+    <t>i2s_out_lrck_is_pulse</t>
+  </si>
+  <si>
+    <t>0x1060</t>
+  </si>
+  <si>
+    <t>帧时钟模式，合法值为0/1，分别对应50%占空比模式、示脉冲模式</t>
+  </si>
+  <si>
+    <t>i2s_out_lrck_polarity</t>
+  </si>
+  <si>
+    <t>0x1070</t>
+  </si>
+  <si>
+    <t>帧时钟极性，合法值为0/1，分别对应正跳变、负跳变</t>
+  </si>
+  <si>
+    <t>i2s_out_lrck_alignment</t>
+  </si>
+  <si>
+    <t>0x1080</t>
+  </si>
+  <si>
+    <t>帧时钟对齐方式，合法值为0/1，分别对应左对齐、延后一个时钟周期</t>
+  </si>
+  <si>
+    <t>i2s_out_dst_i2s_index</t>
+  </si>
+  <si>
+    <t>0x1090</t>
+  </si>
+  <si>
+    <t>目的fpga的i2s的index，合法值位1~16，分别是目的i2s的index</t>
+  </si>
+  <si>
+    <t>i2s_out_frame_num</t>
+  </si>
+  <si>
+    <t>0x1100</t>
+  </si>
+  <si>
+    <t>已完整发送的帧数</t>
+  </si>
+  <si>
+    <t>i2s_out_bclk_freq</t>
+  </si>
+  <si>
+    <t>0x1300</t>
+  </si>
+  <si>
+    <t>i2s in
+从网口进的i2s</t>
+  </si>
+  <si>
+    <t>i2s_in_tdm_num</t>
+  </si>
+  <si>
+    <t>0x4000</t>
+  </si>
+  <si>
+    <t>参考i2s out对应的寄存器说明</t>
+  </si>
+  <si>
+    <t>i2s_in_is_master</t>
+  </si>
+  <si>
+    <t>0x4010</t>
+  </si>
+  <si>
+    <t>i2s_in_enable</t>
+  </si>
+  <si>
+    <t>0x4020</t>
+  </si>
+  <si>
+    <t>i2s_in_dst fpga index</t>
+  </si>
+  <si>
+    <t>0x4030</t>
+  </si>
+  <si>
+    <t>i2s_in_word_width</t>
+  </si>
+  <si>
+    <t>0x4040</t>
+  </si>
+  <si>
+    <t>i2s_in_valid_word_width</t>
+  </si>
+  <si>
+    <t>0x4050</t>
+  </si>
+  <si>
+    <t>i2s_in_lrck_is_pulse</t>
+  </si>
+  <si>
+    <t>0x4060</t>
+  </si>
+  <si>
+    <t>i2s_in_lrck_polarity</t>
+  </si>
+  <si>
+    <t>0x4070</t>
+  </si>
+  <si>
+    <t>i2s_in_lrck_alignment</t>
+  </si>
+  <si>
+    <t>0x4080</t>
+  </si>
+  <si>
+    <t>i2s_in_src_i2s_index</t>
+  </si>
+  <si>
+    <t>0x4090</t>
+  </si>
+  <si>
+    <t>i2s_in_frame_num</t>
+  </si>
+  <si>
+    <t>0x4100</t>
+  </si>
+  <si>
+    <t>i2s_in_bclk_freq</t>
+  </si>
+  <si>
+    <t>0x4300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </rPr>
+      <t>bclk频率，不能超过24576000。</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10"/>
+      </rPr>
+      <t>此功能寄存器未定</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -303,12 +477,18 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF939393"/>
+        <bgColor auto="true"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +525,12 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,16 +837,23 @@
   <sheetPr codeName="temp_block">
     <tabColor/>
   </sheetPr>
-  <dimension ref="L25"/>
+  <dimension ref="Z45"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
   <cols>
+    <col min="1" max="1" width="13.7109" customWidth="true"/>
+    <col min="2" max="2" width="22.7109" customWidth="true"/>
+    <col min="3" max="3" width="15.7109" customWidth="true"/>
+    <col min="4" max="6" width="13.7109" customWidth="true"/>
+    <col min="7" max="7" width="22.7109" customWidth="true"/>
+    <col min="8" max="11" width="13.7109" customWidth="true"/>
     <col min="12" max="12" width="70.1016" customWidth="true"/>
+    <col min="13" max="26" width="13.7109" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -677,8 +870,22 @@
       <c r="J1" s="4" t="s"/>
       <c r="K1" s="4" t="s"/>
       <c r="L1" s="4" t="s"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="4" t="s"/>
+      <c r="N1" s="4" t="s"/>
+      <c r="O1" s="4" t="s"/>
+      <c r="P1" s="4" t="s"/>
+      <c r="Q1" s="4" t="s"/>
+      <c r="R1" s="4" t="s"/>
+      <c r="S1" s="4" t="s"/>
+      <c r="T1" s="4" t="s"/>
+      <c r="U1" s="4" t="s"/>
+      <c r="V1" s="4" t="s"/>
+      <c r="W1" s="4" t="s"/>
+      <c r="X1" s="4" t="s"/>
+      <c r="Y1" s="4" t="s"/>
+      <c r="Z1" s="4" t="s"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="4" t="s"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -695,8 +902,22 @@
       <c r="J2" s="4" t="s"/>
       <c r="K2" s="4" t="s"/>
       <c r="L2" s="4" t="s"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="4" t="s"/>
+      <c r="N2" s="4" t="s"/>
+      <c r="O2" s="4" t="s"/>
+      <c r="P2" s="4" t="s"/>
+      <c r="Q2" s="4" t="s"/>
+      <c r="R2" s="4" t="s"/>
+      <c r="S2" s="4" t="s"/>
+      <c r="T2" s="4" t="s"/>
+      <c r="U2" s="4" t="s"/>
+      <c r="V2" s="4" t="s"/>
+      <c r="W2" s="4" t="s"/>
+      <c r="X2" s="4" t="s"/>
+      <c r="Y2" s="4" t="s"/>
+      <c r="Z2" s="4" t="s"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="4" t="s"/>
       <c r="B3" s="4" t="s"/>
       <c r="C3" s="4" t="s"/>
@@ -709,8 +930,22 @@
       <c r="J3" s="4" t="s"/>
       <c r="K3" s="4" t="s"/>
       <c r="L3" s="4" t="s"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="4" t="s"/>
+      <c r="N3" s="4" t="s"/>
+      <c r="O3" s="4" t="s"/>
+      <c r="P3" s="4" t="s"/>
+      <c r="Q3" s="4" t="s"/>
+      <c r="R3" s="4" t="s"/>
+      <c r="S3" s="4" t="s"/>
+      <c r="T3" s="4" t="s"/>
+      <c r="U3" s="4" t="s"/>
+      <c r="V3" s="4" t="s"/>
+      <c r="W3" s="4" t="s"/>
+      <c r="X3" s="4" t="s"/>
+      <c r="Y3" s="4" t="s"/>
+      <c r="Z3" s="4" t="s"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -747,8 +982,22 @@
       <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="4" t="s"/>
+      <c r="N4" s="4" t="s"/>
+      <c r="O4" s="4" t="s"/>
+      <c r="P4" s="4" t="s"/>
+      <c r="Q4" s="4" t="s"/>
+      <c r="R4" s="4" t="s"/>
+      <c r="S4" s="4" t="s"/>
+      <c r="T4" s="4" t="s"/>
+      <c r="U4" s="4" t="s"/>
+      <c r="V4" s="4" t="s"/>
+      <c r="W4" s="4" t="s"/>
+      <c r="X4" s="4" t="s"/>
+      <c r="Y4" s="4" t="s"/>
+      <c r="Z4" s="4" t="s"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -775,8 +1024,22 @@
       <c r="L5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="M5" s="4" t="s"/>
+      <c r="N5" s="4" t="s"/>
+      <c r="O5" s="4" t="s"/>
+      <c r="P5" s="4" t="s"/>
+      <c r="Q5" s="4" t="s"/>
+      <c r="R5" s="4" t="s"/>
+      <c r="S5" s="4" t="s"/>
+      <c r="T5" s="4" t="s"/>
+      <c r="U5" s="4" t="s"/>
+      <c r="V5" s="4" t="s"/>
+      <c r="W5" s="4" t="s"/>
+      <c r="X5" s="4" t="s"/>
+      <c r="Y5" s="4" t="s"/>
+      <c r="Z5" s="4" t="s"/>
+    </row>
+    <row r="6" spans="2:26">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -800,8 +1063,22 @@
       <c r="L6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="M6" s="4" t="s"/>
+      <c r="N6" s="4" t="s"/>
+      <c r="O6" s="4" t="s"/>
+      <c r="P6" s="4" t="s"/>
+      <c r="Q6" s="4" t="s"/>
+      <c r="R6" s="4" t="s"/>
+      <c r="S6" s="4" t="s"/>
+      <c r="T6" s="4" t="s"/>
+      <c r="U6" s="4" t="s"/>
+      <c r="V6" s="4" t="s"/>
+      <c r="W6" s="4" t="s"/>
+      <c r="X6" s="4" t="s"/>
+      <c r="Y6" s="4" t="s"/>
+      <c r="Z6" s="4" t="s"/>
+    </row>
+    <row r="7" spans="2:26">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -825,8 +1102,22 @@
       <c r="L7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="4" t="s"/>
+      <c r="N7" s="4" t="s"/>
+      <c r="O7" s="4" t="s"/>
+      <c r="P7" s="4" t="s"/>
+      <c r="Q7" s="4" t="s"/>
+      <c r="R7" s="4" t="s"/>
+      <c r="S7" s="4" t="s"/>
+      <c r="T7" s="4" t="s"/>
+      <c r="U7" s="4" t="s"/>
+      <c r="V7" s="4" t="s"/>
+      <c r="W7" s="4" t="s"/>
+      <c r="X7" s="4" t="s"/>
+      <c r="Y7" s="4" t="s"/>
+      <c r="Z7" s="4" t="s"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -853,8 +1144,22 @@
       <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="M8" s="4" t="s"/>
+      <c r="N8" s="4" t="s"/>
+      <c r="O8" s="4" t="s"/>
+      <c r="P8" s="4" t="s"/>
+      <c r="Q8" s="4" t="s"/>
+      <c r="R8" s="4" t="s"/>
+      <c r="S8" s="4" t="s"/>
+      <c r="T8" s="4" t="s"/>
+      <c r="U8" s="4" t="s"/>
+      <c r="V8" s="4" t="s"/>
+      <c r="W8" s="4" t="s"/>
+      <c r="X8" s="4" t="s"/>
+      <c r="Y8" s="4" t="s"/>
+      <c r="Z8" s="4" t="s"/>
+    </row>
+    <row r="9" spans="2:26">
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
@@ -878,8 +1183,22 @@
       <c r="L9" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="M9" s="4" t="s"/>
+      <c r="N9" s="4" t="s"/>
+      <c r="O9" s="4" t="s"/>
+      <c r="P9" s="4" t="s"/>
+      <c r="Q9" s="4" t="s"/>
+      <c r="R9" s="4" t="s"/>
+      <c r="S9" s="4" t="s"/>
+      <c r="T9" s="4" t="s"/>
+      <c r="U9" s="4" t="s"/>
+      <c r="V9" s="4" t="s"/>
+      <c r="W9" s="4" t="s"/>
+      <c r="X9" s="4" t="s"/>
+      <c r="Y9" s="4" t="s"/>
+      <c r="Z9" s="4" t="s"/>
+    </row>
+    <row r="10" spans="2:26">
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
@@ -903,8 +1222,22 @@
       <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="M10" s="4" t="s"/>
+      <c r="N10" s="4" t="s"/>
+      <c r="O10" s="4" t="s"/>
+      <c r="P10" s="4" t="s"/>
+      <c r="Q10" s="4" t="s"/>
+      <c r="R10" s="4" t="s"/>
+      <c r="S10" s="4" t="s"/>
+      <c r="T10" s="4" t="s"/>
+      <c r="U10" s="4" t="s"/>
+      <c r="V10" s="4" t="s"/>
+      <c r="W10" s="4" t="s"/>
+      <c r="X10" s="4" t="s"/>
+      <c r="Y10" s="4" t="s"/>
+      <c r="Z10" s="4" t="s"/>
+    </row>
+    <row r="11" spans="2:26">
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
@@ -928,8 +1261,22 @@
       <c r="L11" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="M11" s="4" t="s"/>
+      <c r="N11" s="4" t="s"/>
+      <c r="O11" s="4" t="s"/>
+      <c r="P11" s="4" t="s"/>
+      <c r="Q11" s="4" t="s"/>
+      <c r="R11" s="4" t="s"/>
+      <c r="S11" s="4" t="s"/>
+      <c r="T11" s="4" t="s"/>
+      <c r="U11" s="4" t="s"/>
+      <c r="V11" s="4" t="s"/>
+      <c r="W11" s="4" t="s"/>
+      <c r="X11" s="4" t="s"/>
+      <c r="Y11" s="4" t="s"/>
+      <c r="Z11" s="4" t="s"/>
+    </row>
+    <row r="12" spans="2:26">
       <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
@@ -953,8 +1300,22 @@
       <c r="L12" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="M12" s="4" t="s"/>
+      <c r="N12" s="4" t="s"/>
+      <c r="O12" s="4" t="s"/>
+      <c r="P12" s="4" t="s"/>
+      <c r="Q12" s="4" t="s"/>
+      <c r="R12" s="4" t="s"/>
+      <c r="S12" s="4" t="s"/>
+      <c r="T12" s="4" t="s"/>
+      <c r="U12" s="4" t="s"/>
+      <c r="V12" s="4" t="s"/>
+      <c r="W12" s="4" t="s"/>
+      <c r="X12" s="4" t="s"/>
+      <c r="Y12" s="4" t="s"/>
+      <c r="Z12" s="4" t="s"/>
+    </row>
+    <row r="13" spans="2:26">
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
@@ -978,8 +1339,22 @@
       <c r="L13" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="M13" s="4" t="s"/>
+      <c r="N13" s="4" t="s"/>
+      <c r="O13" s="4" t="s"/>
+      <c r="P13" s="4" t="s"/>
+      <c r="Q13" s="4" t="s"/>
+      <c r="R13" s="4" t="s"/>
+      <c r="S13" s="4" t="s"/>
+      <c r="T13" s="4" t="s"/>
+      <c r="U13" s="4" t="s"/>
+      <c r="V13" s="4" t="s"/>
+      <c r="W13" s="4" t="s"/>
+      <c r="X13" s="4" t="s"/>
+      <c r="Y13" s="4" t="s"/>
+      <c r="Z13" s="4" t="s"/>
+    </row>
+    <row r="14" spans="2:26">
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1003,8 +1378,22 @@
       <c r="L14" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="M14" s="4" t="s"/>
+      <c r="N14" s="4" t="s"/>
+      <c r="O14" s="4" t="s"/>
+      <c r="P14" s="4" t="s"/>
+      <c r="Q14" s="4" t="s"/>
+      <c r="R14" s="4" t="s"/>
+      <c r="S14" s="4" t="s"/>
+      <c r="T14" s="4" t="s"/>
+      <c r="U14" s="4" t="s"/>
+      <c r="V14" s="4" t="s"/>
+      <c r="W14" s="4" t="s"/>
+      <c r="X14" s="4" t="s"/>
+      <c r="Y14" s="4" t="s"/>
+      <c r="Z14" s="4" t="s"/>
+    </row>
+    <row r="15" spans="2:26">
       <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
@@ -1028,8 +1417,22 @@
       <c r="L15" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="4" t="s"/>
+      <c r="N15" s="4" t="s"/>
+      <c r="O15" s="4" t="s"/>
+      <c r="P15" s="4" t="s"/>
+      <c r="Q15" s="4" t="s"/>
+      <c r="R15" s="4" t="s"/>
+      <c r="S15" s="4" t="s"/>
+      <c r="T15" s="4" t="s"/>
+      <c r="U15" s="4" t="s"/>
+      <c r="V15" s="4" t="s"/>
+      <c r="W15" s="4" t="s"/>
+      <c r="X15" s="4" t="s"/>
+      <c r="Y15" s="4" t="s"/>
+      <c r="Z15" s="4" t="s"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -1056,8 +1459,22 @@
       <c r="L16" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="M16" s="4" t="s"/>
+      <c r="N16" s="4" t="s"/>
+      <c r="O16" s="4" t="s"/>
+      <c r="P16" s="4" t="s"/>
+      <c r="Q16" s="4" t="s"/>
+      <c r="R16" s="4" t="s"/>
+      <c r="S16" s="4" t="s"/>
+      <c r="T16" s="4" t="s"/>
+      <c r="U16" s="4" t="s"/>
+      <c r="V16" s="4" t="s"/>
+      <c r="W16" s="4" t="s"/>
+      <c r="X16" s="4" t="s"/>
+      <c r="Y16" s="4" t="s"/>
+      <c r="Z16" s="4" t="s"/>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
@@ -1081,8 +1498,22 @@
       <c r="L17" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="M17" s="4" t="s"/>
+      <c r="N17" s="4" t="s"/>
+      <c r="O17" s="4" t="s"/>
+      <c r="P17" s="4" t="s"/>
+      <c r="Q17" s="4" t="s"/>
+      <c r="R17" s="4" t="s"/>
+      <c r="S17" s="4" t="s"/>
+      <c r="T17" s="4" t="s"/>
+      <c r="U17" s="4" t="s"/>
+      <c r="V17" s="4" t="s"/>
+      <c r="W17" s="4" t="s"/>
+      <c r="X17" s="4" t="s"/>
+      <c r="Y17" s="4" t="s"/>
+      <c r="Z17" s="4" t="s"/>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
@@ -1106,8 +1537,22 @@
       <c r="L18" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="M18" s="4" t="s"/>
+      <c r="N18" s="4" t="s"/>
+      <c r="O18" s="4" t="s"/>
+      <c r="P18" s="4" t="s"/>
+      <c r="Q18" s="4" t="s"/>
+      <c r="R18" s="4" t="s"/>
+      <c r="S18" s="4" t="s"/>
+      <c r="T18" s="4" t="s"/>
+      <c r="U18" s="4" t="s"/>
+      <c r="V18" s="4" t="s"/>
+      <c r="W18" s="4" t="s"/>
+      <c r="X18" s="4" t="s"/>
+      <c r="Y18" s="4" t="s"/>
+      <c r="Z18" s="4" t="s"/>
+    </row>
+    <row r="19" spans="2:26">
       <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
@@ -1131,8 +1576,22 @@
       <c r="L19" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="M19" s="4" t="s"/>
+      <c r="N19" s="4" t="s"/>
+      <c r="O19" s="4" t="s"/>
+      <c r="P19" s="4" t="s"/>
+      <c r="Q19" s="4" t="s"/>
+      <c r="R19" s="4" t="s"/>
+      <c r="S19" s="4" t="s"/>
+      <c r="T19" s="4" t="s"/>
+      <c r="U19" s="4" t="s"/>
+      <c r="V19" s="4" t="s"/>
+      <c r="W19" s="4" t="s"/>
+      <c r="X19" s="4" t="s"/>
+      <c r="Y19" s="4" t="s"/>
+      <c r="Z19" s="4" t="s"/>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
@@ -1156,8 +1615,22 @@
       <c r="L20" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="M20" s="4" t="s"/>
+      <c r="N20" s="4" t="s"/>
+      <c r="O20" s="4" t="s"/>
+      <c r="P20" s="4" t="s"/>
+      <c r="Q20" s="4" t="s"/>
+      <c r="R20" s="4" t="s"/>
+      <c r="S20" s="4" t="s"/>
+      <c r="T20" s="4" t="s"/>
+      <c r="U20" s="4" t="s"/>
+      <c r="V20" s="4" t="s"/>
+      <c r="W20" s="4" t="s"/>
+      <c r="X20" s="4" t="s"/>
+      <c r="Y20" s="4" t="s"/>
+      <c r="Z20" s="4" t="s"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1181,46 +1654,75 @@
       <c r="L21" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="4" t="s"/>
+      <c r="M21" s="4" t="s"/>
+      <c r="N21" s="4" t="s"/>
+      <c r="O21" s="4" t="s"/>
+      <c r="P21" s="4" t="s"/>
+      <c r="Q21" s="4" t="s"/>
+      <c r="R21" s="4" t="s"/>
+      <c r="S21" s="4" t="s"/>
+      <c r="T21" s="4" t="s"/>
+      <c r="U21" s="4" t="s"/>
+      <c r="V21" s="4" t="s"/>
+      <c r="W21" s="4" t="s"/>
+      <c r="X21" s="4" t="s"/>
+      <c r="Y21" s="4" t="s"/>
+      <c r="Z21" s="4" t="s"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s"/>
       <c r="E22" s="4" t="s"/>
       <c r="F22" s="4" t="s"/>
       <c r="G22" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="s"/>
       <c r="K22" s="4" t="s"/>
       <c r="L22" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="4" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="M22" s="4" t="s"/>
+      <c r="N22" s="4" t="s"/>
+      <c r="O22" s="4" t="s"/>
+      <c r="P22" s="4" t="s"/>
+      <c r="Q22" s="4" t="s"/>
+      <c r="R22" s="4" t="s"/>
+      <c r="S22" s="4" t="s"/>
+      <c r="T22" s="4" t="s"/>
+      <c r="U22" s="4" t="s"/>
+      <c r="V22" s="4" t="s"/>
+      <c r="W22" s="4" t="s"/>
+      <c r="X22" s="4" t="s"/>
+      <c r="Y22" s="4" t="s"/>
+      <c r="Z22" s="4" t="s"/>
+    </row>
+    <row r="23" spans="2:26">
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s"/>
       <c r="E23" s="4" t="s"/>
       <c r="F23" s="4" t="s"/>
       <c r="G23" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
@@ -1231,22 +1733,35 @@
       <c r="J23" s="4" t="s"/>
       <c r="K23" s="4" t="s"/>
       <c r="L23" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="4" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="M23" s="4" t="s"/>
+      <c r="N23" s="4" t="s"/>
+      <c r="O23" s="4" t="s"/>
+      <c r="P23" s="4" t="s"/>
+      <c r="Q23" s="4" t="s"/>
+      <c r="R23" s="4" t="s"/>
+      <c r="S23" s="4" t="s"/>
+      <c r="T23" s="4" t="s"/>
+      <c r="U23" s="4" t="s"/>
+      <c r="V23" s="4" t="s"/>
+      <c r="W23" s="4" t="s"/>
+      <c r="X23" s="4" t="s"/>
+      <c r="Y23" s="4" t="s"/>
+      <c r="Z23" s="4" t="s"/>
+    </row>
+    <row r="24" spans="2:26">
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="4" t="s"/>
       <c r="E24" s="4" t="s"/>
       <c r="F24" s="4" t="s"/>
       <c r="G24" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>26</v>
@@ -1257,22 +1772,35 @@
       <c r="J24" s="4" t="s"/>
       <c r="K24" s="4" t="s"/>
       <c r="L24" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="4" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="M24" s="4" t="s"/>
+      <c r="N24" s="4" t="s"/>
+      <c r="O24" s="4" t="s"/>
+      <c r="P24" s="4" t="s"/>
+      <c r="Q24" s="4" t="s"/>
+      <c r="R24" s="4" t="s"/>
+      <c r="S24" s="4" t="s"/>
+      <c r="T24" s="4" t="s"/>
+      <c r="U24" s="4" t="s"/>
+      <c r="V24" s="4" t="s"/>
+      <c r="W24" s="4" t="s"/>
+      <c r="X24" s="4" t="s"/>
+      <c r="Y24" s="4" t="s"/>
+      <c r="Z24" s="4" t="s"/>
+    </row>
+    <row r="25" spans="2:26">
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="s"/>
       <c r="E25" s="4" t="s"/>
       <c r="F25" s="4" t="s"/>
       <c r="G25" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>26</v>
@@ -1283,14 +1811,813 @@
       <c r="J25" s="4" t="s"/>
       <c r="K25" s="4" t="s"/>
       <c r="L25" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M25" s="4" t="s"/>
+      <c r="N25" s="4" t="s"/>
+      <c r="O25" s="4" t="s"/>
+      <c r="P25" s="4" t="s"/>
+      <c r="Q25" s="4" t="s"/>
+      <c r="R25" s="4" t="s"/>
+      <c r="S25" s="4" t="s"/>
+      <c r="T25" s="4" t="s"/>
+      <c r="U25" s="4" t="s"/>
+      <c r="V25" s="4" t="s"/>
+      <c r="W25" s="4" t="s"/>
+      <c r="X25" s="4" t="s"/>
+      <c r="Y25" s="4" t="s"/>
+      <c r="Z25" s="4" t="s"/>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4" t="s"/>
+      <c r="E26" s="4" t="s"/>
+      <c r="F26" s="4" t="s"/>
+      <c r="G26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s"/>
+      <c r="K26" s="4" t="s"/>
+      <c r="L26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="4" t="s"/>
+      <c r="N26" s="4" t="s"/>
+      <c r="O26" s="4" t="s"/>
+      <c r="P26" s="4" t="s"/>
+      <c r="Q26" s="4" t="s"/>
+      <c r="R26" s="4" t="s"/>
+      <c r="S26" s="4" t="s"/>
+      <c r="T26" s="4" t="s"/>
+      <c r="U26" s="4" t="s"/>
+      <c r="V26" s="4" t="s"/>
+      <c r="W26" s="4" t="s"/>
+      <c r="X26" s="4" t="s"/>
+      <c r="Y26" s="4" t="s"/>
+      <c r="Z26" s="4" t="s"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="4" t="s"/>
+      <c r="E27" s="4" t="s"/>
+      <c r="F27" s="4" t="s"/>
+      <c r="G27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s"/>
+      <c r="K27" s="4" t="s"/>
+      <c r="L27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="4" t="s"/>
+      <c r="N27" s="4" t="s"/>
+      <c r="O27" s="4" t="s"/>
+      <c r="P27" s="4" t="s"/>
+      <c r="Q27" s="4" t="s"/>
+      <c r="R27" s="4" t="s"/>
+      <c r="S27" s="4" t="s"/>
+      <c r="T27" s="4" t="s"/>
+      <c r="U27" s="4" t="s"/>
+      <c r="V27" s="4" t="s"/>
+      <c r="W27" s="4" t="s"/>
+      <c r="X27" s="4" t="s"/>
+      <c r="Y27" s="4" t="s"/>
+      <c r="Z27" s="4" t="s"/>
+    </row>
+    <row r="28" spans="2:26">
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4" t="s"/>
+      <c r="E28" s="4" t="s"/>
+      <c r="F28" s="4" t="s"/>
+      <c r="G28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s"/>
+      <c r="K28" s="4" t="s"/>
+      <c r="L28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="4" t="s"/>
+      <c r="N28" s="4" t="s"/>
+      <c r="O28" s="4" t="s"/>
+      <c r="P28" s="4" t="s"/>
+      <c r="Q28" s="4" t="s"/>
+      <c r="R28" s="4" t="s"/>
+      <c r="S28" s="4" t="s"/>
+      <c r="T28" s="4" t="s"/>
+      <c r="U28" s="4" t="s"/>
+      <c r="V28" s="4" t="s"/>
+      <c r="W28" s="4" t="s"/>
+      <c r="X28" s="4" t="s"/>
+      <c r="Y28" s="4" t="s"/>
+      <c r="Z28" s="4" t="s"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="4" t="s"/>
+      <c r="E29" s="4" t="s"/>
+      <c r="F29" s="4" t="s"/>
+      <c r="G29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s"/>
+      <c r="K29" s="4" t="s"/>
+      <c r="L29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="4" t="s"/>
+      <c r="N29" s="4" t="s"/>
+      <c r="O29" s="4" t="s"/>
+      <c r="P29" s="4" t="s"/>
+      <c r="Q29" s="4" t="s"/>
+      <c r="R29" s="4" t="s"/>
+      <c r="S29" s="4" t="s"/>
+      <c r="T29" s="4" t="s"/>
+      <c r="U29" s="4" t="s"/>
+      <c r="V29" s="4" t="s"/>
+      <c r="W29" s="4" t="s"/>
+      <c r="X29" s="4" t="s"/>
+      <c r="Y29" s="4" t="s"/>
+      <c r="Z29" s="4" t="s"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="4" t="s"/>
+      <c r="E30" s="4" t="s"/>
+      <c r="F30" s="4" t="s"/>
+      <c r="G30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s"/>
+      <c r="K30" s="4" t="s"/>
+      <c r="L30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" s="4" t="s"/>
+      <c r="N30" s="4" t="s"/>
+      <c r="O30" s="4" t="s"/>
+      <c r="P30" s="4" t="s"/>
+      <c r="Q30" s="4" t="s"/>
+      <c r="R30" s="4" t="s"/>
+      <c r="S30" s="4" t="s"/>
+      <c r="T30" s="4" t="s"/>
+      <c r="U30" s="4" t="s"/>
+      <c r="V30" s="4" t="s"/>
+      <c r="W30" s="4" t="s"/>
+      <c r="X30" s="4" t="s"/>
+      <c r="Y30" s="4" t="s"/>
+      <c r="Z30" s="4" t="s"/>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="4" t="s"/>
+      <c r="E31" s="4" t="s"/>
+      <c r="F31" s="4" t="s"/>
+      <c r="G31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s"/>
+      <c r="K31" s="4" t="s"/>
+      <c r="L31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="4" t="s"/>
+      <c r="N31" s="4" t="s"/>
+      <c r="O31" s="4" t="s"/>
+      <c r="P31" s="4" t="s"/>
+      <c r="Q31" s="4" t="s"/>
+      <c r="R31" s="4" t="s"/>
+      <c r="S31" s="4" t="s"/>
+      <c r="T31" s="4" t="s"/>
+      <c r="U31" s="4" t="s"/>
+      <c r="V31" s="4" t="s"/>
+      <c r="W31" s="4" t="s"/>
+      <c r="X31" s="4" t="s"/>
+      <c r="Y31" s="4" t="s"/>
+      <c r="Z31" s="4" t="s"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="4" t="s"/>
+      <c r="E32" s="4" t="s"/>
+      <c r="F32" s="4" t="s"/>
+      <c r="G32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s"/>
+      <c r="K32" s="4" t="s"/>
+      <c r="L32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="4" t="s"/>
+      <c r="N32" s="4" t="s"/>
+      <c r="O32" s="4" t="s"/>
+      <c r="P32" s="4" t="s"/>
+      <c r="Q32" s="4" t="s"/>
+      <c r="R32" s="4" t="s"/>
+      <c r="S32" s="4" t="s"/>
+      <c r="T32" s="4" t="s"/>
+      <c r="U32" s="4" t="s"/>
+      <c r="V32" s="4" t="s"/>
+      <c r="W32" s="4" t="s"/>
+      <c r="X32" s="4" t="s"/>
+      <c r="Y32" s="4" t="s"/>
+      <c r="Z32" s="4" t="s"/>
+    </row>
+    <row r="33" spans="2:26">
+      <c r="B33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="4" t="s"/>
+      <c r="E33" s="4" t="s"/>
+      <c r="F33" s="4" t="s"/>
+      <c r="G33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s"/>
+      <c r="K33" s="4" t="s"/>
+      <c r="L33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M33" s="4" t="s"/>
+      <c r="N33" s="4" t="s"/>
+      <c r="O33" s="4" t="s"/>
+      <c r="P33" s="4" t="s"/>
+      <c r="Q33" s="4" t="s"/>
+      <c r="R33" s="4" t="s"/>
+      <c r="S33" s="4" t="s"/>
+      <c r="T33" s="4" t="s"/>
+      <c r="U33" s="4" t="s"/>
+      <c r="V33" s="4" t="s"/>
+      <c r="W33" s="4" t="s"/>
+      <c r="X33" s="4" t="s"/>
+      <c r="Y33" s="4" t="s"/>
+      <c r="Z33" s="4" t="s"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="7" t="s"/>
+      <c r="E34" s="7" t="s"/>
+      <c r="F34" s="7" t="s"/>
+      <c r="G34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s"/>
+      <c r="K34" s="7" t="s"/>
+      <c r="L34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" s="7" t="s"/>
+      <c r="N34" s="7" t="s"/>
+      <c r="O34" s="7" t="s"/>
+      <c r="P34" s="7" t="s"/>
+      <c r="Q34" s="7" t="s"/>
+      <c r="R34" s="7" t="s"/>
+      <c r="S34" s="7" t="s"/>
+      <c r="T34" s="7" t="s"/>
+      <c r="U34" s="7" t="s"/>
+      <c r="V34" s="7" t="s"/>
+      <c r="W34" s="7" t="s"/>
+      <c r="X34" s="7" t="s"/>
+      <c r="Y34" s="7" t="s"/>
+      <c r="Z34" s="7" t="s"/>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="7" t="s"/>
+      <c r="E35" s="7" t="s"/>
+      <c r="F35" s="7" t="s"/>
+      <c r="G35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s"/>
+      <c r="K35" s="7" t="s"/>
+      <c r="L35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="7" t="s"/>
+      <c r="N35" s="7" t="s"/>
+      <c r="O35" s="7" t="s"/>
+      <c r="P35" s="7" t="s"/>
+      <c r="Q35" s="7" t="s"/>
+      <c r="R35" s="7" t="s"/>
+      <c r="S35" s="7" t="s"/>
+      <c r="T35" s="7" t="s"/>
+      <c r="U35" s="7" t="s"/>
+      <c r="V35" s="7" t="s"/>
+      <c r="W35" s="7" t="s"/>
+      <c r="X35" s="7" t="s"/>
+      <c r="Y35" s="7" t="s"/>
+      <c r="Z35" s="7" t="s"/>
+    </row>
+    <row r="36" spans="2:26">
+      <c r="B36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4" t="s"/>
+      <c r="E36" s="4" t="s"/>
+      <c r="F36" s="4" t="s"/>
+      <c r="G36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4" t="s"/>
+      <c r="K36" s="4" t="s"/>
+      <c r="L36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M36" s="4" t="s"/>
+      <c r="N36" s="4" t="s"/>
+      <c r="O36" s="4" t="s"/>
+      <c r="P36" s="4" t="s"/>
+      <c r="Q36" s="4" t="s"/>
+      <c r="R36" s="4" t="s"/>
+      <c r="S36" s="4" t="s"/>
+      <c r="T36" s="4" t="s"/>
+      <c r="U36" s="4" t="s"/>
+      <c r="V36" s="4" t="s"/>
+      <c r="W36" s="4" t="s"/>
+      <c r="X36" s="4" t="s"/>
+      <c r="Y36" s="4" t="s"/>
+      <c r="Z36" s="4" t="s"/>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="B37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="7" t="s"/>
+      <c r="E37" s="7" t="s"/>
+      <c r="F37" s="7" t="s"/>
+      <c r="G37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s"/>
+      <c r="K37" s="7" t="s"/>
+      <c r="L37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="7" t="s"/>
+      <c r="N37" s="7" t="s"/>
+      <c r="O37" s="7" t="s"/>
+      <c r="P37" s="7" t="s"/>
+      <c r="Q37" s="7" t="s"/>
+      <c r="R37" s="7" t="s"/>
+      <c r="S37" s="7" t="s"/>
+      <c r="T37" s="7" t="s"/>
+      <c r="U37" s="7" t="s"/>
+      <c r="V37" s="7" t="s"/>
+      <c r="W37" s="7" t="s"/>
+      <c r="X37" s="7" t="s"/>
+      <c r="Y37" s="7" t="s"/>
+      <c r="Z37" s="7" t="s"/>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="B38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="7" t="s"/>
+      <c r="E38" s="7" t="s"/>
+      <c r="F38" s="7" t="s"/>
+      <c r="G38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s"/>
+      <c r="K38" s="7" t="s"/>
+      <c r="L38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M38" s="7" t="s"/>
+      <c r="N38" s="7" t="s"/>
+      <c r="O38" s="7" t="s"/>
+      <c r="P38" s="7" t="s"/>
+      <c r="Q38" s="7" t="s"/>
+      <c r="R38" s="7" t="s"/>
+      <c r="S38" s="7" t="s"/>
+      <c r="T38" s="7" t="s"/>
+      <c r="U38" s="7" t="s"/>
+      <c r="V38" s="7" t="s"/>
+      <c r="W38" s="7" t="s"/>
+      <c r="X38" s="7" t="s"/>
+      <c r="Y38" s="7" t="s"/>
+      <c r="Z38" s="7" t="s"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="B39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="7" t="s"/>
+      <c r="E39" s="7" t="s"/>
+      <c r="F39" s="7" t="s"/>
+      <c r="G39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s"/>
+      <c r="K39" s="7" t="s"/>
+      <c r="L39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="7" t="s"/>
+      <c r="N39" s="7" t="s"/>
+      <c r="O39" s="7" t="s"/>
+      <c r="P39" s="7" t="s"/>
+      <c r="Q39" s="7" t="s"/>
+      <c r="R39" s="7" t="s"/>
+      <c r="S39" s="7" t="s"/>
+      <c r="T39" s="7" t="s"/>
+      <c r="U39" s="7" t="s"/>
+      <c r="V39" s="7" t="s"/>
+      <c r="W39" s="7" t="s"/>
+      <c r="X39" s="7" t="s"/>
+      <c r="Y39" s="7" t="s"/>
+      <c r="Z39" s="7" t="s"/>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="B40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="4" t="s"/>
+      <c r="E40" s="4" t="s"/>
+      <c r="F40" s="4" t="s"/>
+      <c r="G40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4" t="s"/>
+      <c r="K40" s="4" t="s"/>
+      <c r="L40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" s="4" t="s"/>
+      <c r="N40" s="4" t="s"/>
+      <c r="O40" s="4" t="s"/>
+      <c r="P40" s="4" t="s"/>
+      <c r="Q40" s="4" t="s"/>
+      <c r="R40" s="4" t="s"/>
+      <c r="S40" s="4" t="s"/>
+      <c r="T40" s="4" t="s"/>
+      <c r="U40" s="4" t="s"/>
+      <c r="V40" s="4" t="s"/>
+      <c r="W40" s="4" t="s"/>
+      <c r="X40" s="4" t="s"/>
+      <c r="Y40" s="4" t="s"/>
+      <c r="Z40" s="4" t="s"/>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="4" t="s"/>
+      <c r="E41" s="4" t="s"/>
+      <c r="F41" s="4" t="s"/>
+      <c r="G41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="s"/>
+      <c r="K41" s="4" t="s"/>
+      <c r="L41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M41" s="4" t="s"/>
+      <c r="N41" s="4" t="s"/>
+      <c r="O41" s="4" t="s"/>
+      <c r="P41" s="4" t="s"/>
+      <c r="Q41" s="4" t="s"/>
+      <c r="R41" s="4" t="s"/>
+      <c r="S41" s="4" t="s"/>
+      <c r="T41" s="4" t="s"/>
+      <c r="U41" s="4" t="s"/>
+      <c r="V41" s="4" t="s"/>
+      <c r="W41" s="4" t="s"/>
+      <c r="X41" s="4" t="s"/>
+      <c r="Y41" s="4" t="s"/>
+      <c r="Z41" s="4" t="s"/>
+    </row>
+    <row r="42" spans="2:26">
+      <c r="B42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="4" t="s"/>
+      <c r="E42" s="4" t="s"/>
+      <c r="F42" s="4" t="s"/>
+      <c r="G42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4" t="s"/>
+      <c r="K42" s="4" t="s"/>
+      <c r="L42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M42" s="4" t="s"/>
+      <c r="N42" s="4" t="s"/>
+      <c r="O42" s="4" t="s"/>
+      <c r="P42" s="4" t="s"/>
+      <c r="Q42" s="4" t="s"/>
+      <c r="R42" s="4" t="s"/>
+      <c r="S42" s="4" t="s"/>
+      <c r="T42" s="4" t="s"/>
+      <c r="U42" s="4" t="s"/>
+      <c r="V42" s="4" t="s"/>
+      <c r="W42" s="4" t="s"/>
+      <c r="X42" s="4" t="s"/>
+      <c r="Y42" s="4" t="s"/>
+      <c r="Z42" s="4" t="s"/>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="B43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="4" t="s"/>
+      <c r="E43" s="4" t="s"/>
+      <c r="F43" s="4" t="s"/>
+      <c r="G43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s"/>
+      <c r="K43" s="4" t="s"/>
+      <c r="L43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" s="4" t="s"/>
+      <c r="N43" s="4" t="s"/>
+      <c r="O43" s="4" t="s"/>
+      <c r="P43" s="4" t="s"/>
+      <c r="Q43" s="4" t="s"/>
+      <c r="R43" s="4" t="s"/>
+      <c r="S43" s="4" t="s"/>
+      <c r="T43" s="4" t="s"/>
+      <c r="U43" s="4" t="s"/>
+      <c r="V43" s="4" t="s"/>
+      <c r="W43" s="4" t="s"/>
+      <c r="X43" s="4" t="s"/>
+      <c r="Y43" s="4" t="s"/>
+      <c r="Z43" s="4" t="s"/>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="B44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="4" t="s"/>
+      <c r="E44" s="4" t="s"/>
+      <c r="F44" s="4" t="s"/>
+      <c r="G44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4" t="s"/>
+      <c r="K44" s="4" t="s"/>
+      <c r="L44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M44" s="4" t="s"/>
+      <c r="N44" s="4" t="s"/>
+      <c r="O44" s="4" t="s"/>
+      <c r="P44" s="4" t="s"/>
+      <c r="Q44" s="4" t="s"/>
+      <c r="R44" s="4" t="s"/>
+      <c r="S44" s="4" t="s"/>
+      <c r="T44" s="4" t="s"/>
+      <c r="U44" s="4" t="s"/>
+      <c r="V44" s="4" t="s"/>
+      <c r="W44" s="4" t="s"/>
+      <c r="X44" s="4" t="s"/>
+      <c r="Y44" s="4" t="s"/>
+      <c r="Z44" s="4" t="s"/>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="B45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="7" t="s"/>
+      <c r="E45" s="7" t="s"/>
+      <c r="F45" s="7" t="s"/>
+      <c r="G45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s"/>
+      <c r="K45" s="7" t="s"/>
+      <c r="L45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M45" s="7" t="s"/>
+      <c r="N45" s="7" t="s"/>
+      <c r="O45" s="7" t="s"/>
+      <c r="P45" s="7" t="s"/>
+      <c r="Q45" s="7" t="s"/>
+      <c r="R45" s="7" t="s"/>
+      <c r="S45" s="7" t="s"/>
+      <c r="T45" s="7" t="s"/>
+      <c r="U45" s="7" t="s"/>
+      <c r="V45" s="7" t="s"/>
+      <c r="W45" s="7" t="s"/>
+      <c r="X45" s="7" t="s"/>
+      <c r="Y45" s="7" t="s"/>
+      <c r="Z45" s="7" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="A34:A45"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -266,7 +266,7 @@
     <t>是否使能，1：使能，0：不使能</t>
   </si>
   <si>
-    <t>i2s_out_dst fpga index</t>
+    <t>i2s_out_fpga index</t>
   </si>
   <si>
     <t>0x1030</t>
@@ -320,7 +320,7 @@
     <t>帧时钟对齐方式，合法值为0/1，分别对应左对齐、延后一个时钟周期</t>
   </si>
   <si>
-    <t>i2s_out_dst_i2s_index</t>
+    <t>i2s_out_i2s_index</t>
   </si>
   <si>
     <t>0x1090</t>
@@ -369,7 +369,7 @@
     <t>0x4020</t>
   </si>
   <si>
-    <t>i2s_in_dst fpga index</t>
+    <t>i2s_in_fpga_index</t>
   </si>
   <si>
     <t>0x4030</t>
@@ -405,7 +405,7 @@
     <t>0x4080</t>
   </si>
   <si>
-    <t>i2s_in_src_i2s_index</t>
+    <t>i2s_in_i2s_index</t>
   </si>
   <si>
     <t>0x4090</t>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -266,7 +266,7 @@
     <t>是否使能，1：使能，0：不使能</t>
   </si>
   <si>
-    <t>i2s_out_fpga index</t>
+    <t>i2s_out_fpga_index</t>
   </si>
   <si>
     <t>0x1030</t>
